--- a/doc/netit_backend_hr_documentation.xlsx
+++ b/doc/netit_backend_hr_documentation.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\netit-backend-hr\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78F3E39-C22C-4F0F-8B41-B9EB182990BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DE7F3F-5B1A-4C90-B062-27445BD50187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Как" sheetId="1" r:id="rId1"/>
-    <sheet name="потребители" sheetId="3" r:id="rId2"/>
-    <sheet name="базова архитектура" sheetId="2" r:id="rId3"/>
-    <sheet name="автентикация" sheetId="4" r:id="rId4"/>
+    <sheet name="потребители" sheetId="3" r:id="rId1"/>
+    <sheet name="базова архитектура" sheetId="2" r:id="rId2"/>
+    <sheet name="автентикация" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,43 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
-  <si>
-    <t>Front-end разработка</t>
-  </si>
-  <si>
-    <t>*визуализация</t>
-  </si>
-  <si>
-    <t>*динамично разпределение на визуални компоненти</t>
-  </si>
-  <si>
-    <t>*процеса по комуникация със сървърите</t>
-  </si>
-  <si>
-    <t>технология</t>
-  </si>
-  <si>
-    <t>HTML / CSS / Java Script</t>
-  </si>
-  <si>
-    <t>Back-end</t>
-  </si>
-  <si>
-    <t>*архитектура на изчислителна система</t>
-  </si>
-  <si>
-    <t>*архитектура на база данни</t>
-  </si>
-  <si>
-    <t>*сервизи за комуникация с Front-end слой</t>
-  </si>
-  <si>
-    <t>PHP / MySQL</t>
-  </si>
-  <si>
-    <t>* Java / .NET / Python / Ruby / Go / Node JS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>чете</t>
   </si>
@@ -171,37 +134,29 @@
     <t>Dashboard с всички обяви за работа</t>
   </si>
   <si>
-    <t xml:space="preserve">Dashboard Управление на процес по кандидатстване за работа </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Управление на процес по кандидатстване за работа </t>
-  </si>
-  <si>
     <t>Административни екрани</t>
+  </si>
+  <si>
+    <t>SUPER</t>
+  </si>
+  <si>
+    <t>Екрани за публикуване, редактиране и изтриване на категории</t>
+  </si>
+  <si>
+    <t>Екрани за публикуване, редактиране и изтриване на обяви за работа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard Списък с регистрираните кандидаслужители </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,7 +180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,42 +189,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -297,22 +227,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -321,24 +247,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Вход" xfId="2" builtinId="20"/>
-    <cellStyle name="Лош" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -616,80 +540,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDA5B9D-F767-4007-8D80-2722D6134B90}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -707,67 +557,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>17</v>
+      <c r="A1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -777,12 +627,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB472E15-DF8F-420B-8A0E-6A7426FD6E60}">
-  <dimension ref="A3:B18"/>
+  <dimension ref="A3:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,97 +642,99 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -890,11 +742,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2E9D7A-62F1-4D9C-9E9D-29BC55C05943}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -906,43 +758,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>24</v>
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>29</v>
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
